--- a/08_Hierarchy/src/main/resources/계층형게시판.xlsx
+++ b/08_Hierarchy/src/main/resources/계층형게시판.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Spring\08_Hierarchy\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44A3BF9-C17C-4619-956C-FE0F7EC12E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468192B6-CEA9-4331-A94B-8F0B073E818A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2040" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>DEPTH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,26 @@
   </si>
   <si>
     <t xml:space="preserve">  ㄴ(1)첫댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ㄴ(2)댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ㄴ(1)대댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 -&gt; 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ㄴ(1)대댓글2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-&gt;4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +494,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,12 +599,53 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4"/>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -592,6 +653,21 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
